--- a/APTAutomationProject/src/com/colt/qa/datalibrary/voipAccess_newTab.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/voipAccess_newTab.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>serviceName</t>
   </si>
   <si>
@@ -139,6 +136,18 @@
   </si>
   <si>
     <t>Cisco 12008</t>
+  </si>
+  <si>
+    <t>url for the Product</t>
+  </si>
+  <si>
+    <t>MAS_devicename2</t>
+  </si>
+  <si>
+    <t>lo0-mas2.BHX.router.colt.net</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -456,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,163 +478,170 @@
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2">
+        <v>-7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="V2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2">
-        <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2">
-        <v>-7</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2">
-        <v>23</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>35</v>
       </c>
-      <c r="W2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2</v>
       </c>
     </row>
